--- a/biology/Zoologie/Coelidiinae/Coelidiinae.xlsx
+++ b/biology/Zoologie/Coelidiinae/Coelidiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coelidiinae sont une sous-famille d'insectes de l'ordre des Hémiptères (les Hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Cicadellidae.
 Ces insectes communément appelés cicadelles, sont des insectes sauteurs et piqueurs et ils se nourrissent de la sève des végétaux grâce à leur rostre.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 nov. 2013)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 nov. 2013)
 Calodia
 Coelidia Germar, 1821
 Jikradia
@@ -522,7 +536,7 @@
 Taharana
 Thagria
 Tinobregmus
-Selon BioLib                    (8 nov. 2013)[2]
+Selon BioLib                    (8 nov. 2013)
 Coelidia Germar, 1821</t>
         </is>
       </c>
